--- a/data/trans_orig/P14C16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C16-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CC90A7-DFD3-414E-B88D-84C96F34770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93DD89A9-F464-486B-B5B1-321A91B61998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7C428BA-1E5D-484B-97B8-E5157C4A50A4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76F2A437-EEDA-4F3B-9A14-24E7AB8512AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="150">
   <si>
     <t>Población según el tiempo de diagnóstico del alergias crónicas en 2015 (Tasa respuesta: 6,3%)</t>
   </si>
@@ -113,70 +113,70 @@
     <t>84,35%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>26,69%</t>
+    <t>28,13%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>22,74%</t>
+    <t>19,1%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>21,98%</t>
+    <t>22,32%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>19,67%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -185,301 +185,304 @@
     <t>78,21%</t>
   </si>
   <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>11,84%</t>
+    <t>10,22%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>11,56%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,35%</t>
+    <t>6,34%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>76,32%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>13,7%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -894,7 +897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC46EA-7B3C-46E4-A87D-C5034D0F9DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939D0503-A4B6-4518-8DCD-89EE31978AE5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1911,10 +1914,10 @@
         <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -2054,7 +2057,7 @@
         <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -2063,13 +2066,13 @@
         <v>228999</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>344</v>
@@ -2078,13 +2081,13 @@
         <v>364459</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2102,13 @@
         <v>22407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -2114,13 +2117,13 @@
         <v>34926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -2129,13 +2132,13 @@
         <v>57333</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2153,13 @@
         <v>5686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2168,10 +2171,10 @@
         <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -2180,13 +2183,13 @@
         <v>14689</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,7 +2245,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C16-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93DD89A9-F464-486B-B5B1-321A91B61998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE4D974-1E93-48FB-855D-D07C496D67E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76F2A437-EEDA-4F3B-9A14-24E7AB8512AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEEB9B90-E240-463C-A7D6-7F97442671A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="150">
   <si>
-    <t>Población según el tiempo de diagnóstico del alergias crónicas en 2015 (Tasa respuesta: 6,3%)</t>
+    <t>Población según el tiempo de diagnóstico del alergias crónicas en 2016 (Tasa respuesta: 6,3%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -107,103 +107,103 @@
     <t>Ultimos 12 meses</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>28,13%</t>
+    <t>25,53%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>19,1%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>22,32%</t>
+    <t>22,6%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>19,67%</t>
+    <t>21,01%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>75,2%</t>
+    <t>74,73%</t>
   </si>
   <si>
     <t>87,74%</t>
@@ -212,34 +212,34 @@
     <t>19,5%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>10,22%</t>
+    <t>14,52%</t>
   </si>
   <si>
     <t>4,13%</t>
@@ -248,73 +248,73 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>9,52%</t>
+    <t>9,71%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>18,86%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -323,10 +323,10 @@
     <t>3,3%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -335,52 +335,52 @@
     <t>87,44%</t>
   </si>
   <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>20,8%</t>
+    <t>20,76%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>4,29%</t>
@@ -389,13 +389,13 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>11,56%</t>
+    <t>11,55%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,34%</t>
+    <t>7,18%</t>
   </si>
   <si>
     <t>2,61%</t>
@@ -404,31 +404,31 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>6,95%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>79,54%</t>
+    <t>80,05%</t>
   </si>
   <si>
     <t>87,12%</t>
@@ -437,52 +437,52 @@
     <t>13,7%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939D0503-A4B6-4518-8DCD-89EE31978AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F82E1AE-5535-4B9F-B990-C9F5E420952C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1914,7 +1914,7 @@
         <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>111</v>
